--- a/Resultados/Resumo_Geral_LM_36ha.xlsx
+++ b/Resultados/Resumo_Geral_LM_36ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{35C74335-3B00-41BF-8BB4-EDDFCC10EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F429B9B-42FB-4556-B939-D9D6A17CD899}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{35C74335-3B00-41BF-8BB4-EDDFCC10EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3B618F-F7F1-4D5A-B440-56A8AAB3891A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF90F505-E77F-4357-AFC6-58EFBA8884C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF90F505-E77F-4357-AFC6-58EFBA8884C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>LM 36 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -311,7 +311,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>field_36ha_100ha_2%_12m_0_LM\</c:v>
+            <c:v>36ha_2%_12m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -553,7 +553,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>\field_36ha_100ha_6%_6m_0_LM\</c:v>
+            <c:v>36ha_6%_6m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -761,7 +761,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>field_36ha_100ha_6%_12m_0_LM\</c:v>
+            <c:v>36ha_6%_12m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1003,7 +1003,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>field_36ha_100ha_10%_6m_0_LM\</c:v>
+            <c:v>36ha_10%_6m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1453,7 +1453,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>field_36ha_100ha_14%_6m_0_LM\</c:v>
+            <c:v>36ha_14%_6m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1661,7 +1661,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>ield_36ha_100ha_14%_12m_0_LM\</c:v>
+            <c:v>36ha_14%_12m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1903,7 +1903,7 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
-            <c:v>field_36ha_100ha_18%_6m_0_LM\</c:v>
+            <c:v>36ha_18%_6m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2111,7 +2111,7 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
-            <c:v>ield_36ha_100ha_18%_12m_0_LM\</c:v>
+            <c:v>36ha_18%_12m_LM</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2334,6 +2334,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2352,6 +2374,28 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Capacidade Operacional Máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2366,6 +2410,36 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84250491452991449"/>
+          <c:y val="0.21370607638888889"/>
+          <c:w val="0.14935405982905983"/>
+          <c:h val="0.62764305555555555"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2392,15 +2466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>92175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2748,9 +2822,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2766,9 +2842,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2835,7 +2911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2937,7 @@
         <v>1.333224</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2887,7 +2963,7 @@
         <v>1.4244479999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2913,7 +2989,7 @@
         <v>1.486944</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +3015,7 @@
         <v>1.5245279999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2965,7 +3041,7 @@
         <v>1.5551280000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2991,7 +3067,7 @@
         <v>1.57446</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3017,7 +3093,7 @@
         <v>1.5952319999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3043,7 +3119,7 @@
         <v>1.6046999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3069,7 +3145,7 @@
         <v>1.6185239999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3095,7 +3171,7 @@
         <v>1.6324559999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3197,7 @@
         <v>1.633572</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3147,7 +3223,7 @@
         <v>1.63656</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3173,7 +3249,7 @@
         <v>1.6400159999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3275,7 @@
         <v>1.641348</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3225,7 +3301,7 @@
         <v>1.6423919999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3251,7 +3327,7 @@
         <v>1.6447680000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3277,7 +3353,7 @@
         <v>1.6484399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3303,7 +3379,7 @@
         <v>1.6431119999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3329,7 +3405,7 @@
         <v>1.6466399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3355,7 +3431,7 @@
         <v>1.64592</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3381,7 +3457,7 @@
         <v>1.6470720000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3407,7 +3483,7 @@
         <v>1.6478639999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3509,7 @@
         <v>1.64232</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3459,7 +3535,7 @@
         <v>1.6414920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3485,7 +3561,7 @@
         <v>1.6410600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3511,7 +3587,7 @@
         <v>1.639332</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3537,7 +3613,7 @@
         <v>1.6351199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3577,9 +3653,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +3687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3646,7 +3722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3672,7 +3748,7 @@
         <v>1.947276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3774,7 @@
         <v>2.1579480000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3724,7 +3800,7 @@
         <v>2.2904279999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3750,7 +3826,7 @@
         <v>2.393316</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3776,7 +3852,7 @@
         <v>2.4658920000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3802,7 +3878,7 @@
         <v>2.5180560000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3828,7 +3904,7 @@
         <v>2.5588440000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3854,7 +3930,7 @@
         <v>2.5996319999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3880,7 +3956,7 @@
         <v>2.620152</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3982,7 @@
         <v>2.6443439999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3932,7 +4008,7 @@
         <v>2.6545320000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3958,7 +4034,7 @@
         <v>2.6762040000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3984,7 +4060,7 @@
         <v>2.6771400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4010,7 +4086,7 @@
         <v>2.6919360000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4036,7 +4112,7 @@
         <v>2.6952840000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4062,7 +4138,7 @@
         <v>2.6977679999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4088,7 +4164,7 @@
         <v>2.7038159999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4114,7 +4190,7 @@
         <v>2.7029880000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4140,7 +4216,7 @@
         <v>2.7067680000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4166,7 +4242,7 @@
         <v>2.6992799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4192,7 +4268,7 @@
         <v>2.7097560000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4218,7 +4294,7 @@
         <v>2.7085679999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4244,7 +4320,7 @@
         <v>2.6951040000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4270,7 +4346,7 @@
         <v>2.6910719999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4296,7 +4372,7 @@
         <v>2.6900279999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4322,7 +4398,7 @@
         <v>2.6845560000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4348,7 +4424,7 @@
         <v>2.670912</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4386,9 +4462,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>48</v>
       </c>
@@ -4407,9 +4483,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +4517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4502,7 +4578,7 @@
         <v>1.240308</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4528,7 +4604,7 @@
         <v>1.345248</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4554,7 +4630,7 @@
         <v>1.4108039999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +4656,7 @@
         <v>1.4542200000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4606,7 +4682,7 @@
         <v>1.491552</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4632,7 +4708,7 @@
         <v>1.5161039999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4658,7 +4734,7 @@
         <v>1.5375239999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4684,7 +4760,7 @@
         <v>1.5521039999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4710,7 +4786,7 @@
         <v>1.5662879999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +4812,7 @@
         <v>1.5720479999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4838,7 @@
         <v>1.5834600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4788,7 +4864,7 @@
         <v>1.5906959999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4814,7 +4890,7 @@
         <v>1.609596</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4840,7 +4916,7 @@
         <v>1.601496</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4866,7 +4942,7 @@
         <v>1.6010999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4892,7 +4968,7 @@
         <v>1.606608</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4918,7 +4994,7 @@
         <v>1.6084800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +5020,7 @@
         <v>1.6100279999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4970,7 +5046,7 @@
         <v>1.6104959999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4996,7 +5072,7 @@
         <v>1.6078319999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5022,7 +5098,7 @@
         <v>1.6113240000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5048,7 +5124,7 @@
         <v>1.6106040000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5074,7 +5150,7 @@
         <v>1.6081560000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5100,7 +5176,7 @@
         <v>1.605888</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5126,7 +5202,7 @@
         <v>1.6075440000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5152,7 +5228,7 @@
         <v>1.603512</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5178,7 +5254,7 @@
         <v>1.6095240000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5218,9 +5294,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5313,7 +5389,7 @@
         <v>1.75464</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5339,7 +5415,7 @@
         <v>1.9704599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5441,7 @@
         <v>2.1126240000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5391,7 +5467,7 @@
         <v>2.225196</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5417,7 +5493,7 @@
         <v>2.3010839999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5443,7 +5519,7 @@
         <v>2.3717880000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5469,7 +5545,7 @@
         <v>2.4188039999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5495,7 +5571,7 @@
         <v>2.460852</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5521,7 +5597,7 @@
         <v>2.492496</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5547,7 +5623,7 @@
         <v>2.5139519999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5573,7 +5649,7 @@
         <v>2.5359479999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5599,7 +5675,7 @@
         <v>2.5558199999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5625,7 +5701,7 @@
         <v>2.55924</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5651,7 +5727,7 @@
         <v>2.5721999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5677,7 +5753,7 @@
         <v>2.5835399999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5703,7 +5779,7 @@
         <v>2.5972919999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5729,7 +5805,7 @@
         <v>2.5986959999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5755,7 +5831,7 @@
         <v>2.6058240000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5781,7 +5857,7 @@
         <v>2.5957799999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5807,7 +5883,7 @@
         <v>2.6028359999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5909,7 @@
         <v>2.5975439999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5859,7 +5935,7 @@
         <v>2.6069040000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5885,7 +5961,7 @@
         <v>2.5999919999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5911,7 +5987,7 @@
         <v>2.5983000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5937,7 +6013,7 @@
         <v>2.5935480000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5963,7 +6039,7 @@
         <v>2.590668</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5989,7 +6065,7 @@
         <v>2.6141760000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6029,9 +6105,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6098,7 +6174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6200,7 @@
         <v>3.0799799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6150,7 +6226,7 @@
         <v>3.1504320000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6176,7 +6252,7 @@
         <v>3.183732</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6202,7 +6278,7 @@
         <v>3.194172</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6228,7 +6304,7 @@
         <v>3.2000040000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6254,7 +6330,7 @@
         <v>3.2001480000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6280,7 +6356,7 @@
         <v>3.2053680000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6306,7 +6382,7 @@
         <v>3.2060879999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6332,7 +6408,7 @@
         <v>3.1998240000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6358,7 +6434,7 @@
         <v>3.1832639999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6384,7 +6460,7 @@
         <v>3.183408</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6410,7 +6486,7 @@
         <v>3.1653000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6436,7 +6512,7 @@
         <v>3.1662360000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6462,7 +6538,7 @@
         <v>3.1473</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6488,7 +6564,7 @@
         <v>3.1322519999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6514,7 +6590,7 @@
         <v>3.1413600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6540,7 +6616,7 @@
         <v>3.1183920000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6566,7 +6642,7 @@
         <v>3.1083479999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6592,7 +6668,7 @@
         <v>3.0887280000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6618,7 +6694,7 @@
         <v>3.0794040000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6720,7 @@
         <v>3.0753000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6670,7 +6746,7 @@
         <v>3.0601440000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6696,7 +6772,7 @@
         <v>3.04956</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6722,7 +6798,7 @@
         <v>3.036708</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6748,7 +6824,7 @@
         <v>3.0224519999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6774,7 +6850,7 @@
         <v>3.0079440000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6800,7 +6876,7 @@
         <v>2.9939040000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6838,9 +6914,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>39</v>
       </c>
@@ -6859,9 +6935,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +6969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6928,7 +7004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6954,7 +7030,7 @@
         <v>1.5954480000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +7056,7 @@
         <v>1.6502760000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7006,7 +7082,7 @@
         <v>1.6855560000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7032,7 +7108,7 @@
         <v>1.703376</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7058,7 +7134,7 @@
         <v>1.7153639999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7084,7 +7160,7 @@
         <v>1.7277480000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7110,7 +7186,7 @@
         <v>1.7305200000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7136,7 +7212,7 @@
         <v>1.7379</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7162,7 +7238,7 @@
         <v>1.7417159999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7188,7 +7264,7 @@
         <v>1.7436599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -7214,7 +7290,7 @@
         <v>1.7406359999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7240,7 +7316,7 @@
         <v>1.7431919999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7266,7 +7342,7 @@
         <v>1.7439840000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7292,7 +7368,7 @@
         <v>1.7503200000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7318,7 +7394,7 @@
         <v>1.7403120000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7344,7 +7420,7 @@
         <v>1.7388719999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7370,7 +7446,7 @@
         <v>1.7376840000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7396,7 +7472,7 @@
         <v>1.7339039999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7422,7 +7498,7 @@
         <v>1.7369279999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7448,7 +7524,7 @@
         <v>1.732896</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7474,7 +7550,7 @@
         <v>1.7273159999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7500,7 +7576,7 @@
         <v>1.727028</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7526,7 +7602,7 @@
         <v>1.7213039999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7552,7 +7628,7 @@
         <v>1.7164080000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7578,7 +7654,7 @@
         <v>1.7160839999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7604,7 +7680,7 @@
         <v>1.713924</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -7630,7 +7706,7 @@
         <v>1.708056</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -7670,9 +7746,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7704,7 +7780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7739,7 +7815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7765,7 +7841,7 @@
         <v>2.5554600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7791,7 +7867,7 @@
         <v>2.7047879999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7817,7 +7893,7 @@
         <v>2.8015559999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7843,7 +7919,7 @@
         <v>2.8523160000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7869,7 +7945,7 @@
         <v>2.8971359999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7895,7 +7971,7 @@
         <v>2.9198879999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7921,7 +7997,7 @@
         <v>2.9410920000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7947,7 +8023,7 @@
         <v>2.9647800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7973,7 +8049,7 @@
         <v>2.9872079999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7999,7 +8075,7 @@
         <v>2.9597039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8025,7 +8101,7 @@
         <v>2.9704320000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8051,7 +8127,7 @@
         <v>2.9743920000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8077,7 +8153,7 @@
         <v>2.9749319999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8103,7 +8179,7 @@
         <v>2.9684519999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8129,7 +8205,7 @@
         <v>2.9679120000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8155,7 +8231,7 @@
         <v>2.9618639999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8181,7 +8257,7 @@
         <v>2.9607839999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -8207,7 +8283,7 @@
         <v>2.9493360000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8233,7 +8309,7 @@
         <v>2.9621519999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8259,7 +8335,7 @@
         <v>2.934504</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8285,7 +8361,7 @@
         <v>2.9265480000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8311,7 +8387,7 @@
         <v>2.9112480000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8337,7 +8413,7 @@
         <v>2.9107080000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8363,7 +8439,7 @@
         <v>2.8972440000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8389,7 +8465,7 @@
         <v>2.9001599999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8415,7 +8491,7 @@
         <v>2.8822320000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8441,7 +8517,7 @@
         <v>2.86992</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -8479,9 +8555,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>42</v>
       </c>
@@ -8500,9 +8576,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8534,7 +8610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8569,7 +8645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8595,7 +8671,7 @@
         <v>1.4506919999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8621,7 +8697,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8647,7 +8723,7 @@
         <v>1.5780599999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8673,7 +8749,7 @@
         <v>1.6079759999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8699,7 +8775,7 @@
         <v>1.6314479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -8725,7 +8801,7 @@
         <v>1.6430759999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8751,7 +8827,7 @@
         <v>1.659384</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8777,7 +8853,7 @@
         <v>1.6682039999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8803,7 +8879,7 @@
         <v>1.6738200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8829,7 +8905,7 @@
         <v>1.6803000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8855,7 +8931,7 @@
         <v>1.6849439999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8881,7 +8957,7 @@
         <v>1.6882200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8907,7 +8983,7 @@
         <v>1.6881480000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8933,7 +9009,7 @@
         <v>1.6917839999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8959,7 +9035,7 @@
         <v>1.6992360000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8985,7 +9061,7 @@
         <v>1.6936200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9011,7 +9087,7 @@
         <v>1.6891559999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9037,7 +9113,7 @@
         <v>1.6874639999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9063,7 +9139,7 @@
         <v>1.68624</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9089,7 +9165,7 @@
         <v>1.6862040000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9115,7 +9191,7 @@
         <v>1.686024</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9141,7 +9217,7 @@
         <v>1.6849439999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9167,7 +9243,7 @@
         <v>1.6894439999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -9193,7 +9269,7 @@
         <v>1.6874279999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9219,7 +9295,7 @@
         <v>1.677996</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -9245,7 +9321,7 @@
         <v>1.6728120000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -9271,7 +9347,7 @@
         <v>1.6724160000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9311,9 +9387,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9345,7 +9421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -9380,7 +9456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -9406,7 +9482,7 @@
         <v>2.2174200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9432,7 +9508,7 @@
         <v>2.4056640000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -9458,7 +9534,7 @@
         <v>2.5233119999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -9484,7 +9560,7 @@
         <v>2.6040960000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9510,7 +9586,7 @@
         <v>2.6624880000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9536,7 +9612,7 @@
         <v>2.7163439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9562,7 +9638,7 @@
         <v>2.7469799999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -9588,7 +9664,7 @@
         <v>2.7635039999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9614,7 +9690,7 @@
         <v>2.7847080000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -9640,7 +9716,7 @@
         <v>2.7950400000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9666,7 +9742,7 @@
         <v>2.8076400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -9692,7 +9768,7 @@
         <v>2.8143359999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9718,7 +9794,7 @@
         <v>2.8186200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -9744,7 +9820,7 @@
         <v>2.8265400000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9770,7 +9846,7 @@
         <v>2.8697399999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9796,7 +9872,7 @@
         <v>2.8276560000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9822,7 +9898,7 @@
         <v>2.8171440000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9848,7 +9924,7 @@
         <v>2.8163520000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9874,7 +9950,7 @@
         <v>2.8131119999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9900,7 +9976,7 @@
         <v>2.810988</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9926,7 +10002,7 @@
         <v>2.8075679999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9952,7 +10028,7 @@
         <v>2.8087199999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9978,7 +10054,7 @@
         <v>2.8045799999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -10004,7 +10080,7 @@
         <v>2.7890640000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -10030,7 +10106,7 @@
         <v>2.7905759999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -10056,7 +10132,7 @@
         <v>2.7758160000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -10082,7 +10158,7 @@
         <v>2.7766440000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -10120,9 +10196,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>45</v>
       </c>
